--- a/logic-file/sale-logic.xlsx
+++ b/logic-file/sale-logic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\SkyFitness\logic-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5045B7B6-21C7-43F6-A1D5-8B2083D4B76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FAED45-F453-44DF-9245-799B31B8DD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,10 +479,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
@@ -492,7 +492,7 @@
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -540,11 +540,11 @@
         <v>100</v>
       </c>
       <c r="E3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -554,11 +554,11 @@
         <v>100</v>
       </c>
       <c r="E4" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -568,11 +568,11 @@
         <v>100</v>
       </c>
       <c r="E5" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -582,11 +582,11 @@
         <v>100</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -614,11 +614,11 @@
         <v>100</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -628,11 +628,11 @@
         <v>100</v>
       </c>
       <c r="E9" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -642,11 +642,11 @@
         <v>100</v>
       </c>
       <c r="E10" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -656,7 +656,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -680,7 +680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -690,11 +690,11 @@
         <v>100</v>
       </c>
       <c r="E13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -704,11 +704,11 @@
         <v>100</v>
       </c>
       <c r="E14" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -718,11 +718,11 @@
         <v>100</v>
       </c>
       <c r="E15" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -732,7 +732,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -766,11 +766,11 @@
         <v>100</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -780,11 +780,11 @@
         <v>100</v>
       </c>
       <c r="E19" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -794,11 +794,11 @@
         <v>100</v>
       </c>
       <c r="E20" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -808,7 +808,7 @@
         <v>100</v>
       </c>
       <c r="E21" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -832,7 +832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -842,11 +842,11 @@
         <v>100</v>
       </c>
       <c r="E23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -856,11 +856,11 @@
         <v>100</v>
       </c>
       <c r="E24" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -870,11 +870,11 @@
         <v>100</v>
       </c>
       <c r="E25" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -884,7 +884,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="4"/>
     </row>
